--- a/assets/stages/maps/MapEditor/Room17.xlsx
+++ b/assets/stages/maps/MapEditor/Room17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7031F502-D335-4746-932A-8F651BE035F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD751B-0A92-46E9-A059-58E459D2C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AC1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="V4:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>

--- a/assets/stages/maps/MapEditor/Room17.xlsx
+++ b/assets/stages/maps/MapEditor/Room17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD751B-0A92-46E9-A059-58E459D2C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3985C9-7CD6-4206-A7D4-5F4E83DCAF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -125,37 +125,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
@@ -464,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V4" activeCellId="1" sqref="AD4 V4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,10 +1106,10 @@
         <v>-1</v>
       </c>
       <c r="Y7" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z7" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA7" s="1">
         <v>-1</v>
@@ -1338,10 +1308,10 @@
         <v>-1</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9" s="1">
         <v>-1</v>
@@ -1427,16 +1397,16 @@
         <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
         <v>-1</v>
@@ -2240,30 +2210,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="W1:X2 Y1:Z5 A1:V10 X3:X5 W3:W10 X6:Y6 Z6:Z7 X7:Z10 A11:Z11 A12:AF18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="W1:X2 A1:V10 W3:W10 A11:AF18 X10:AF10 X3:X9 Y1:AF9">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:X2 Y1:Z5 X3:X5 C3:P7 W3:W10 B3:B15 Q5:V5 T5:T9 AD5:AF11 X6:Y6 Z6:Z7 G6:V10 X7:Z10 H7:P14 C8:G16 G11:Z11 G12:AE13 Z12:AF14 Q13:Y14 G15:X18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="W1:X2 C3:P7 W3:W10 B3:B15 Q5:V5 T5:T9 AD5:AF11 G6:V10 H7:P14 C8:G16 G12:AE13 Z12:AF14 Q13:Y14 G15:X18 G11:AC11 X10:AC10 X3:X9 Y1:AC9">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AC11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AF11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2275,7 +2232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>

--- a/assets/stages/maps/MapEditor/Room17.xlsx
+++ b/assets/stages/maps/MapEditor/Room17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3985C9-7CD6-4206-A7D4-5F4E83DCAF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAE845-85BA-4254-873E-5AC510570D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -141,20 +155,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,17 +434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -934,7 +934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -2210,17 +2210,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="W1:X2 A1:V10 W3:W10 A11:AF18 X10:AF10 X3:X9 Y1:AF9">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="W1:X2 Y1:AC9 C3:P7 X3:X9 W3:W10 B3:B15 Q5:V5 T5:T9 AD5:AF11 G6:V10 H7:P14 C8:G16 X10:AC10 G11:AC11 G12:AE13 Z12:AF14 Q13:Y14 G15:X18">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:X2 Y1:AF9 A1:V10 X3:X9 W3:W10 X10:AF10 A11:AF18">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W1:X2 C3:P7 W3:W10 B3:B15 Q5:V5 T5:T9 AD5:AF11 G6:V10 H7:P14 C8:G16 G12:AE13 Z12:AF14 Q13:Y14 G15:X18 G11:AC11 X10:AC10 X3:X9 Y1:AC9">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2232,16 +2232,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2289,7 +2289,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2323,7 +2323,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2357,7 +2357,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2391,7 +2391,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2499,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2533,7 +2533,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2567,7 +2567,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2601,7 +2601,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2635,7 +2635,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2669,7 +2669,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2703,7 +2703,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2737,7 +2737,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2771,7 +2771,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2805,7 +2805,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2839,7 +2839,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2884,9 +2884,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2901,9 +2903,9 @@
       <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="22:32" x14ac:dyDescent="0.4">
       <c r="V4">
         <v>8</v>
       </c>
@@ -2928,9 +2930,9 @@
       <selection activeCell="L9" sqref="L6:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K6">
         <v>1</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K7">
         <v>1</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K8">
         <v>1</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K9">
         <v>1</v>
       </c>

--- a/assets/stages/maps/MapEditor/Room17.xlsx
+++ b/assets/stages/maps/MapEditor/Room17.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAE845-85BA-4254-873E-5AC510570D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9324F47-EFD6-4839-96D2-25139B7C95AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
-    <sheet name="EventArea" sheetId="2" r:id="rId2"/>
-    <sheet name="DramaArea" sheetId="3" r:id="rId3"/>
+    <sheet name="DramaArea" sheetId="3" r:id="rId2"/>
+    <sheet name="EventArea" sheetId="2" r:id="rId3"/>
     <sheet name="SignArea" sheetId="4" r:id="rId4"/>
     <sheet name="backgroundObjects" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -435,7 +435,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="T9" sqref="T9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2229,10 +2229,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="T9:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="9" spans="20:21" x14ac:dyDescent="0.4">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
@@ -2880,21 +2904,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="V4:AF4"/>
@@ -2924,15 +2933,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="K6:N9"/>
+  <dimension ref="K6:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L6:L9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="11:21" x14ac:dyDescent="0.4">
       <c r="K6">
         <v>1</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="11:21" x14ac:dyDescent="0.4">
       <c r="K7">
         <v>1</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="11:21" x14ac:dyDescent="0.4">
       <c r="K8">
         <v>1</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="11:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="11:21" x14ac:dyDescent="0.4">
       <c r="K9">
         <v>1</v>
       </c>
@@ -2986,6 +2995,12 @@
       </c>
       <c r="N9">
         <v>7</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
